--- a/02_config/scenario_pv_60_hp_60_ev_60_mixed_10_transition_naive/agents.xlsx
+++ b/02_config/scenario_pv_60_hp_60_ev_60_mixed_10_transition_naive/agents.xlsx
@@ -29,12 +29,12 @@
     <t>general/bus</t>
   </si>
   <si>
+    <t>general/aggregated_by</t>
+  </si>
+  <si>
     <t>general/parameters/occupants</t>
   </si>
   <si>
-    <t>general/aggregated_by</t>
-  </si>
-  <si>
     <t>general/parameters/area</t>
   </si>
   <si>
@@ -1016,7 +1016,7 @@
     <t>sfh_38</t>
   </si>
   <si>
-    <t>E8zbP2CmNJCT7wg</t>
+    <t>wG8UvGY3DETU8HG</t>
   </si>
   <si>
     <t>000018335.csv</t>
@@ -1562,7 +1562,7 @@
     <t>clustering_represented_group/agent_types</t>
   </si>
   <si>
-    <t>['sfh_32', 'sfh_15', 'sfh_0', 'sfh_3', 'sfh_18', 'sfh_29', 'sfh_5', 'sfh_4', 'sfh_27', 'sfh_25']</t>
+    <t>['sfh_38', 'sfh_24', 'sfh_18', 'sfh_22', 'sfh_8', 'sfh_25', 'sfh_16', 'sfh_32', 'sfh_0', 'sfh_26']</t>
   </si>
   <si>
     <t>[1]</t>
@@ -2832,11 +2832,11 @@
       <c r="E2">
         <v>21274</v>
       </c>
-      <c r="F2">
-        <v>3</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="F2" t="s">
         <v>333</v>
+      </c>
+      <c r="G2">
+        <v>3</v>
       </c>
       <c r="H2">
         <v>100</v>
@@ -3007,7 +3007,7 @@
         <v>60</v>
       </c>
       <c r="DE2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF2" t="s">
         <v>373</v>
@@ -3289,7 +3289,7 @@
         <v>488</v>
       </c>
       <c r="IN2">
-        <v>57600</v>
+        <v>43200</v>
       </c>
       <c r="IO2">
         <v>1</v>
@@ -3340,7 +3340,7 @@
         <v>0</v>
       </c>
       <c r="JG2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ2">
         <v>0</v>
@@ -3349,7 +3349,7 @@
         <v>0</v>
       </c>
       <c r="JL2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JO2">
         <v>0</v>
@@ -3358,7 +3358,7 @@
         <v>0</v>
       </c>
       <c r="JQ2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:295">
@@ -3371,11 +3371,11 @@
       <c r="E3">
         <v>21249</v>
       </c>
-      <c r="F3">
-        <v>4</v>
+      <c r="G3">
+        <v>3</v>
       </c>
       <c r="H3">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="I3">
         <v>2</v>
@@ -3384,7 +3384,7 @@
         <v>2.6</v>
       </c>
       <c r="K3">
-        <v>150</v>
+        <v>55</v>
       </c>
       <c r="L3">
         <v>1</v>
@@ -3543,7 +3543,7 @@
         <v>50</v>
       </c>
       <c r="DE3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF3" t="s">
         <v>373</v>
@@ -3798,7 +3798,7 @@
         <v>488</v>
       </c>
       <c r="IN3">
-        <v>86400</v>
+        <v>72000</v>
       </c>
       <c r="IO3">
         <v>1</v>
@@ -3849,7 +3849,7 @@
         <v>0</v>
       </c>
       <c r="JG3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ3">
         <v>0</v>
@@ -3858,7 +3858,7 @@
         <v>0</v>
       </c>
       <c r="JL3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JO3">
         <v>0</v>
@@ -3867,7 +3867,7 @@
         <v>0</v>
       </c>
       <c r="JQ3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:295">
@@ -3880,11 +3880,11 @@
       <c r="E4">
         <v>21166</v>
       </c>
-      <c r="F4">
-        <v>3</v>
+      <c r="G4">
+        <v>4</v>
       </c>
       <c r="H4">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="I4">
         <v>2</v>
@@ -3893,7 +3893,7 @@
         <v>2.6</v>
       </c>
       <c r="K4">
-        <v>55</v>
+        <v>150</v>
       </c>
       <c r="L4">
         <v>1</v>
@@ -4037,7 +4037,7 @@
         <v>0</v>
       </c>
       <c r="DE4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF4" t="s">
         <v>373</v>
@@ -4280,7 +4280,7 @@
         <v>0</v>
       </c>
       <c r="JG4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ4">
         <v>0</v>
@@ -4289,7 +4289,7 @@
         <v>0</v>
       </c>
       <c r="JL4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JO4">
         <v>0</v>
@@ -4298,7 +4298,7 @@
         <v>0</v>
       </c>
       <c r="JQ4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:295">
@@ -4311,11 +4311,8 @@
       <c r="E5">
         <v>20723</v>
       </c>
-      <c r="F5">
-        <v>3</v>
-      </c>
-      <c r="G5" t="s">
-        <v>333</v>
+      <c r="G5">
+        <v>3</v>
       </c>
       <c r="H5">
         <v>100</v>
@@ -4471,7 +4468,7 @@
         <v>0</v>
       </c>
       <c r="DE5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF5" t="s">
         <v>373</v>
@@ -4663,7 +4660,7 @@
         <v>488</v>
       </c>
       <c r="IN5">
-        <v>43200</v>
+        <v>57600</v>
       </c>
       <c r="IO5">
         <v>1</v>
@@ -4714,7 +4711,7 @@
         <v>0</v>
       </c>
       <c r="JG5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ5">
         <v>0</v>
@@ -4723,7 +4720,7 @@
         <v>0</v>
       </c>
       <c r="JL5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JO5">
         <v>0</v>
@@ -4732,7 +4729,7 @@
         <v>0</v>
       </c>
       <c r="JQ5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:295">
@@ -4745,11 +4742,8 @@
       <c r="E6">
         <v>20561</v>
       </c>
-      <c r="F6">
-        <v>3</v>
-      </c>
-      <c r="G6" t="s">
-        <v>333</v>
+      <c r="G6">
+        <v>3</v>
       </c>
       <c r="H6">
         <v>100</v>
@@ -4920,7 +4914,7 @@
         <v>42</v>
       </c>
       <c r="DE6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF6" t="s">
         <v>373</v>
@@ -5148,7 +5142,7 @@
         <v>488</v>
       </c>
       <c r="IN6">
-        <v>57600</v>
+        <v>72000</v>
       </c>
       <c r="IO6">
         <v>1</v>
@@ -5199,7 +5193,7 @@
         <v>0</v>
       </c>
       <c r="JG6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ6">
         <v>0</v>
@@ -5208,7 +5202,7 @@
         <v>0</v>
       </c>
       <c r="JL6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JO6">
         <v>0</v>
@@ -5217,7 +5211,7 @@
         <v>0</v>
       </c>
       <c r="JQ6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:295">
@@ -5230,14 +5224,11 @@
       <c r="E7">
         <v>20289</v>
       </c>
-      <c r="F7">
-        <v>3</v>
-      </c>
-      <c r="G7" t="s">
-        <v>333</v>
+      <c r="G7">
+        <v>4</v>
       </c>
       <c r="H7">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="I7">
         <v>2</v>
@@ -5246,7 +5237,7 @@
         <v>2.6</v>
       </c>
       <c r="K7">
-        <v>55</v>
+        <v>150</v>
       </c>
       <c r="L7">
         <v>1</v>
@@ -5405,7 +5396,7 @@
         <v>50</v>
       </c>
       <c r="DE7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF7" t="s">
         <v>373</v>
@@ -5738,7 +5729,7 @@
         <v>0</v>
       </c>
       <c r="JG7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ7">
         <v>0</v>
@@ -5747,7 +5738,7 @@
         <v>0</v>
       </c>
       <c r="JL7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JO7">
         <v>0</v>
@@ -5756,7 +5747,7 @@
         <v>0</v>
       </c>
       <c r="JQ7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:295">
@@ -5769,7 +5760,7 @@
       <c r="E8">
         <v>20136</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>4</v>
       </c>
       <c r="H8">
@@ -5941,7 +5932,7 @@
         <v>90</v>
       </c>
       <c r="DE8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF8" t="s">
         <v>373</v>
@@ -6280,7 +6271,7 @@
         <v>51</v>
       </c>
       <c r="JG8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JH8">
         <v>9300</v>
@@ -6295,7 +6286,7 @@
         <v>51</v>
       </c>
       <c r="JL8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JO8">
         <v>0</v>
@@ -6304,7 +6295,7 @@
         <v>0</v>
       </c>
       <c r="JQ8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JR8" t="s">
         <v>501</v>
@@ -6344,7 +6335,7 @@
       <c r="E9">
         <v>19994</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>3</v>
       </c>
       <c r="H9">
@@ -6516,7 +6507,7 @@
         <v>46</v>
       </c>
       <c r="DE9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF9" t="s">
         <v>373</v>
@@ -6849,7 +6840,7 @@
         <v>0</v>
       </c>
       <c r="JG9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ9">
         <v>0</v>
@@ -6858,7 +6849,7 @@
         <v>0</v>
       </c>
       <c r="JL9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JO9">
         <v>0</v>
@@ -6867,7 +6858,7 @@
         <v>0</v>
       </c>
       <c r="JQ9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JR9" t="s">
         <v>502</v>
@@ -6907,7 +6898,10 @@
       <c r="E10">
         <v>19849</v>
       </c>
-      <c r="F10">
+      <c r="F10" t="s">
+        <v>333</v>
+      </c>
+      <c r="G10">
         <v>3</v>
       </c>
       <c r="H10">
@@ -7064,7 +7058,7 @@
         <v>0</v>
       </c>
       <c r="DE10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF10" t="s">
         <v>373</v>
@@ -7256,7 +7250,7 @@
         <v>488</v>
       </c>
       <c r="IN10">
-        <v>57600</v>
+        <v>86400</v>
       </c>
       <c r="IO10">
         <v>1</v>
@@ -7307,7 +7301,7 @@
         <v>0</v>
       </c>
       <c r="JG10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ10">
         <v>0</v>
@@ -7316,7 +7310,7 @@
         <v>0</v>
       </c>
       <c r="JL10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JO10">
         <v>0</v>
@@ -7325,7 +7319,7 @@
         <v>0</v>
       </c>
       <c r="JQ10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:295">
@@ -7338,7 +7332,7 @@
       <c r="E11">
         <v>19767</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>4</v>
       </c>
       <c r="H11">
@@ -7510,7 +7504,7 @@
         <v>60</v>
       </c>
       <c r="DE11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF11" t="s">
         <v>373</v>
@@ -7765,7 +7759,7 @@
         <v>488</v>
       </c>
       <c r="IN11">
-        <v>57600</v>
+        <v>72000</v>
       </c>
       <c r="IO11">
         <v>1</v>
@@ -7822,7 +7816,7 @@
         <v>59</v>
       </c>
       <c r="JG11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JH11">
         <v>8300</v>
@@ -7837,7 +7831,7 @@
         <v>60</v>
       </c>
       <c r="JL11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JM11">
         <v>6800</v>
@@ -7852,7 +7846,7 @@
         <v>57</v>
       </c>
       <c r="JQ11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:295">
@@ -7865,7 +7859,7 @@
       <c r="E12">
         <v>19761</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>4</v>
       </c>
       <c r="H12">
@@ -8022,7 +8016,7 @@
         <v>0</v>
       </c>
       <c r="DE12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF12" t="s">
         <v>373</v>
@@ -8214,7 +8208,7 @@
         <v>488</v>
       </c>
       <c r="IN12">
-        <v>57600</v>
+        <v>72000</v>
       </c>
       <c r="IO12">
         <v>1</v>
@@ -8265,7 +8259,7 @@
         <v>0</v>
       </c>
       <c r="JG12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ12">
         <v>0</v>
@@ -8274,7 +8268,7 @@
         <v>0</v>
       </c>
       <c r="JL12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JO12">
         <v>0</v>
@@ -8283,7 +8277,7 @@
         <v>0</v>
       </c>
       <c r="JQ12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:295">
@@ -8296,7 +8290,7 @@
       <c r="E13">
         <v>19686</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>4</v>
       </c>
       <c r="H13">
@@ -8468,7 +8462,7 @@
         <v>56</v>
       </c>
       <c r="DE13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF13" t="s">
         <v>373</v>
@@ -8750,7 +8744,7 @@
         <v>488</v>
       </c>
       <c r="IN13">
-        <v>72000</v>
+        <v>57600</v>
       </c>
       <c r="IO13">
         <v>1</v>
@@ -8801,7 +8795,7 @@
         <v>0</v>
       </c>
       <c r="JG13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ13">
         <v>0</v>
@@ -8810,7 +8804,7 @@
         <v>0</v>
       </c>
       <c r="JL13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JO13">
         <v>0</v>
@@ -8819,7 +8813,7 @@
         <v>0</v>
       </c>
       <c r="JQ13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:295">
@@ -8832,7 +8826,7 @@
       <c r="E14">
         <v>19522</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>4</v>
       </c>
       <c r="H14">
@@ -8989,7 +8983,7 @@
         <v>0</v>
       </c>
       <c r="DE14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF14" t="s">
         <v>373</v>
@@ -9181,7 +9175,7 @@
         <v>488</v>
       </c>
       <c r="IN14">
-        <v>43200</v>
+        <v>57600</v>
       </c>
       <c r="IO14">
         <v>1</v>
@@ -9232,7 +9226,7 @@
         <v>0</v>
       </c>
       <c r="JG14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ14">
         <v>0</v>
@@ -9241,7 +9235,7 @@
         <v>0</v>
       </c>
       <c r="JL14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JO14">
         <v>0</v>
@@ -9250,7 +9244,7 @@
         <v>0</v>
       </c>
       <c r="JQ14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:295">
@@ -9263,11 +9257,11 @@
       <c r="E15">
         <v>19414</v>
       </c>
-      <c r="F15">
-        <v>4</v>
+      <c r="G15">
+        <v>3</v>
       </c>
       <c r="H15">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="I15">
         <v>2</v>
@@ -9276,7 +9270,7 @@
         <v>2.6</v>
       </c>
       <c r="K15">
-        <v>150</v>
+        <v>55</v>
       </c>
       <c r="L15">
         <v>1</v>
@@ -9435,7 +9429,7 @@
         <v>49</v>
       </c>
       <c r="DE15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF15" t="s">
         <v>373</v>
@@ -9741,7 +9735,7 @@
         <v>0</v>
       </c>
       <c r="JG15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ15">
         <v>0</v>
@@ -9750,7 +9744,7 @@
         <v>0</v>
       </c>
       <c r="JL15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JO15">
         <v>0</v>
@@ -9759,7 +9753,7 @@
         <v>0</v>
       </c>
       <c r="JQ15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:295">
@@ -9772,7 +9766,7 @@
       <c r="E16">
         <v>19288</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>3</v>
       </c>
       <c r="H16">
@@ -9929,7 +9923,7 @@
         <v>0</v>
       </c>
       <c r="DE16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF16" t="s">
         <v>373</v>
@@ -10172,7 +10166,7 @@
         <v>0</v>
       </c>
       <c r="JG16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ16">
         <v>0</v>
@@ -10181,7 +10175,7 @@
         <v>0</v>
       </c>
       <c r="JL16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JO16">
         <v>0</v>
@@ -10190,7 +10184,7 @@
         <v>0</v>
       </c>
       <c r="JQ16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:295">
@@ -10203,11 +10197,8 @@
       <c r="E17">
         <v>19210</v>
       </c>
-      <c r="F17">
-        <v>3</v>
-      </c>
-      <c r="G17" t="s">
-        <v>333</v>
+      <c r="G17">
+        <v>3</v>
       </c>
       <c r="H17">
         <v>100</v>
@@ -10363,7 +10354,7 @@
         <v>0</v>
       </c>
       <c r="DE17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF17" t="s">
         <v>373</v>
@@ -10555,7 +10546,7 @@
         <v>488</v>
       </c>
       <c r="IN17">
-        <v>86400</v>
+        <v>43200</v>
       </c>
       <c r="IO17">
         <v>1</v>
@@ -10606,7 +10597,7 @@
         <v>0</v>
       </c>
       <c r="JG17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ17">
         <v>0</v>
@@ -10615,7 +10606,7 @@
         <v>0</v>
       </c>
       <c r="JL17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JO17">
         <v>0</v>
@@ -10624,7 +10615,7 @@
         <v>0</v>
       </c>
       <c r="JQ17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:295">
@@ -10637,7 +10628,10 @@
       <c r="E18">
         <v>19147</v>
       </c>
-      <c r="F18">
+      <c r="F18" t="s">
+        <v>333</v>
+      </c>
+      <c r="G18">
         <v>4</v>
       </c>
       <c r="H18">
@@ -10809,7 +10803,7 @@
         <v>50</v>
       </c>
       <c r="DE18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF18" t="s">
         <v>373</v>
@@ -11091,7 +11085,7 @@
         <v>488</v>
       </c>
       <c r="IN18">
-        <v>43200</v>
+        <v>72000</v>
       </c>
       <c r="IO18">
         <v>1</v>
@@ -11142,7 +11136,7 @@
         <v>0</v>
       </c>
       <c r="JG18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ18">
         <v>0</v>
@@ -11151,7 +11145,7 @@
         <v>0</v>
       </c>
       <c r="JL18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JO18">
         <v>0</v>
@@ -11160,7 +11154,7 @@
         <v>0</v>
       </c>
       <c r="JQ18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:295">
@@ -11173,11 +11167,11 @@
       <c r="E19">
         <v>19040</v>
       </c>
-      <c r="F19">
-        <v>4</v>
+      <c r="G19">
+        <v>3</v>
       </c>
       <c r="H19">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="I19">
         <v>2</v>
@@ -11186,7 +11180,7 @@
         <v>2.6</v>
       </c>
       <c r="K19">
-        <v>150</v>
+        <v>55</v>
       </c>
       <c r="L19">
         <v>1</v>
@@ -11330,7 +11324,7 @@
         <v>0</v>
       </c>
       <c r="DE19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF19" t="s">
         <v>373</v>
@@ -11522,7 +11516,7 @@
         <v>488</v>
       </c>
       <c r="IN19">
-        <v>57600</v>
+        <v>86400</v>
       </c>
       <c r="IO19">
         <v>1</v>
@@ -11573,7 +11567,7 @@
         <v>0</v>
       </c>
       <c r="JG19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ19">
         <v>0</v>
@@ -11582,7 +11576,7 @@
         <v>0</v>
       </c>
       <c r="JL19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JO19">
         <v>0</v>
@@ -11591,7 +11585,7 @@
         <v>0</v>
       </c>
       <c r="JQ19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:295">
@@ -11604,11 +11598,11 @@
       <c r="E20">
         <v>18552</v>
       </c>
-      <c r="F20">
+      <c r="F20" t="s">
+        <v>333</v>
+      </c>
+      <c r="G20">
         <v>4</v>
-      </c>
-      <c r="G20" t="s">
-        <v>333</v>
       </c>
       <c r="H20">
         <v>130</v>
@@ -11779,7 +11773,7 @@
         <v>47</v>
       </c>
       <c r="DE20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF20" t="s">
         <v>373</v>
@@ -12034,7 +12028,7 @@
         <v>488</v>
       </c>
       <c r="IN20">
-        <v>43200</v>
+        <v>86400</v>
       </c>
       <c r="IO20">
         <v>1</v>
@@ -12085,7 +12079,7 @@
         <v>0</v>
       </c>
       <c r="JG20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ20">
         <v>0</v>
@@ -12094,7 +12088,7 @@
         <v>0</v>
       </c>
       <c r="JL20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JO20">
         <v>0</v>
@@ -12103,7 +12097,7 @@
         <v>0</v>
       </c>
       <c r="JQ20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:295">
@@ -12116,11 +12110,11 @@
       <c r="E21">
         <v>18493</v>
       </c>
-      <c r="F21">
-        <v>3</v>
+      <c r="G21">
+        <v>4</v>
       </c>
       <c r="H21">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="I21">
         <v>2</v>
@@ -12129,7 +12123,7 @@
         <v>2.6</v>
       </c>
       <c r="K21">
-        <v>55</v>
+        <v>150</v>
       </c>
       <c r="L21">
         <v>1</v>
@@ -12288,7 +12282,7 @@
         <v>45</v>
       </c>
       <c r="DE21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF21" t="s">
         <v>373</v>
@@ -12543,7 +12537,7 @@
         <v>488</v>
       </c>
       <c r="IN21">
-        <v>86400</v>
+        <v>72000</v>
       </c>
       <c r="IO21">
         <v>1</v>
@@ -12594,7 +12588,7 @@
         <v>0</v>
       </c>
       <c r="JG21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ21">
         <v>0</v>
@@ -12603,7 +12597,7 @@
         <v>0</v>
       </c>
       <c r="JL21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JO21">
         <v>0</v>
@@ -12612,7 +12606,7 @@
         <v>0</v>
       </c>
       <c r="JQ21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:295">
@@ -12625,7 +12619,7 @@
       <c r="E22">
         <v>18160</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>4</v>
       </c>
       <c r="H22">
@@ -12797,7 +12791,7 @@
         <v>90</v>
       </c>
       <c r="DE22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF22" t="s">
         <v>373</v>
@@ -13052,7 +13046,7 @@
         <v>488</v>
       </c>
       <c r="IN22">
-        <v>57600</v>
+        <v>72000</v>
       </c>
       <c r="IO22">
         <v>1</v>
@@ -13109,7 +13103,7 @@
         <v>48</v>
       </c>
       <c r="JG22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ22">
         <v>0</v>
@@ -13118,7 +13112,7 @@
         <v>0</v>
       </c>
       <c r="JL22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JO22">
         <v>0</v>
@@ -13127,7 +13121,7 @@
         <v>0</v>
       </c>
       <c r="JQ22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:295">
@@ -13140,7 +13134,7 @@
       <c r="E23">
         <v>17736</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <v>3</v>
       </c>
       <c r="H23">
@@ -13312,7 +13306,7 @@
         <v>90</v>
       </c>
       <c r="DE23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF23" t="s">
         <v>373</v>
@@ -13594,7 +13588,7 @@
         <v>488</v>
       </c>
       <c r="IN23">
-        <v>72000</v>
+        <v>57600</v>
       </c>
       <c r="IO23">
         <v>1</v>
@@ -13651,7 +13645,7 @@
         <v>43</v>
       </c>
       <c r="JG23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JH23">
         <v>2800</v>
@@ -13666,7 +13660,7 @@
         <v>43</v>
       </c>
       <c r="JL23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JO23">
         <v>0</v>
@@ -13675,7 +13669,7 @@
         <v>0</v>
       </c>
       <c r="JQ23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JR23" t="s">
         <v>503</v>
@@ -13715,11 +13709,14 @@
       <c r="E24">
         <v>17231</v>
       </c>
-      <c r="F24">
-        <v>3</v>
+      <c r="F24" t="s">
+        <v>333</v>
+      </c>
+      <c r="G24">
+        <v>4</v>
       </c>
       <c r="H24">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="I24">
         <v>2</v>
@@ -13728,7 +13725,7 @@
         <v>2.6</v>
       </c>
       <c r="K24">
-        <v>55</v>
+        <v>150</v>
       </c>
       <c r="L24">
         <v>1</v>
@@ -13887,7 +13884,7 @@
         <v>41</v>
       </c>
       <c r="DE24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF24" t="s">
         <v>373</v>
@@ -14193,7 +14190,7 @@
         <v>0</v>
       </c>
       <c r="JG24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ24">
         <v>0</v>
@@ -14202,7 +14199,7 @@
         <v>0</v>
       </c>
       <c r="JL24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JO24">
         <v>0</v>
@@ -14211,7 +14208,7 @@
         <v>0</v>
       </c>
       <c r="JQ24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:295">
@@ -14224,7 +14221,7 @@
       <c r="E25">
         <v>17130</v>
       </c>
-      <c r="F25">
+      <c r="G25">
         <v>4</v>
       </c>
       <c r="H25">
@@ -14396,7 +14393,7 @@
         <v>71</v>
       </c>
       <c r="DE25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF25" t="s">
         <v>373</v>
@@ -14651,7 +14648,7 @@
         <v>488</v>
       </c>
       <c r="IN25">
-        <v>86400</v>
+        <v>43200</v>
       </c>
       <c r="IO25">
         <v>1</v>
@@ -14702,7 +14699,7 @@
         <v>0</v>
       </c>
       <c r="JG25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ25">
         <v>0</v>
@@ -14711,7 +14708,7 @@
         <v>0</v>
       </c>
       <c r="JL25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JO25">
         <v>0</v>
@@ -14720,7 +14717,7 @@
         <v>0</v>
       </c>
       <c r="JQ25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:295">
@@ -14733,11 +14730,14 @@
       <c r="E26">
         <v>17042</v>
       </c>
-      <c r="F26">
-        <v>4</v>
+      <c r="F26" t="s">
+        <v>333</v>
+      </c>
+      <c r="G26">
+        <v>3</v>
       </c>
       <c r="H26">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="I26">
         <v>2</v>
@@ -14746,7 +14746,7 @@
         <v>2.6</v>
       </c>
       <c r="K26">
-        <v>150</v>
+        <v>55</v>
       </c>
       <c r="L26">
         <v>1</v>
@@ -14905,7 +14905,7 @@
         <v>52</v>
       </c>
       <c r="DE26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF26" t="s">
         <v>373</v>
@@ -15187,7 +15187,7 @@
         <v>488</v>
       </c>
       <c r="IN26">
-        <v>86400</v>
+        <v>57600</v>
       </c>
       <c r="IO26">
         <v>1</v>
@@ -15244,7 +15244,7 @@
         <v>52</v>
       </c>
       <c r="JG26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ26">
         <v>0</v>
@@ -15253,7 +15253,7 @@
         <v>0</v>
       </c>
       <c r="JL26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JO26">
         <v>0</v>
@@ -15262,7 +15262,7 @@
         <v>0</v>
       </c>
       <c r="JQ26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:295">
@@ -15275,11 +15275,11 @@
       <c r="E27">
         <v>16829</v>
       </c>
-      <c r="F27">
-        <v>3</v>
-      </c>
-      <c r="G27" t="s">
+      <c r="F27" t="s">
         <v>333</v>
+      </c>
+      <c r="G27">
+        <v>3</v>
       </c>
       <c r="H27">
         <v>100</v>
@@ -15435,7 +15435,7 @@
         <v>0</v>
       </c>
       <c r="DE27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF27" t="s">
         <v>373</v>
@@ -15678,7 +15678,7 @@
         <v>0</v>
       </c>
       <c r="JG27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ27">
         <v>0</v>
@@ -15687,7 +15687,7 @@
         <v>0</v>
       </c>
       <c r="JL27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JO27">
         <v>0</v>
@@ -15696,7 +15696,7 @@
         <v>0</v>
       </c>
       <c r="JQ27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:295">
@@ -15709,11 +15709,14 @@
       <c r="E28">
         <v>15953</v>
       </c>
-      <c r="F28">
-        <v>3</v>
+      <c r="F28" t="s">
+        <v>333</v>
+      </c>
+      <c r="G28">
+        <v>4</v>
       </c>
       <c r="H28">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="I28">
         <v>2</v>
@@ -15722,7 +15725,7 @@
         <v>2.6</v>
       </c>
       <c r="K28">
-        <v>55</v>
+        <v>150</v>
       </c>
       <c r="L28">
         <v>1</v>
@@ -15881,7 +15884,7 @@
         <v>55</v>
       </c>
       <c r="DE28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF28" t="s">
         <v>373</v>
@@ -16163,7 +16166,7 @@
         <v>488</v>
       </c>
       <c r="IN28">
-        <v>57600</v>
+        <v>86400</v>
       </c>
       <c r="IO28">
         <v>1</v>
@@ -16220,7 +16223,7 @@
         <v>55</v>
       </c>
       <c r="JG28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ28">
         <v>0</v>
@@ -16229,7 +16232,7 @@
         <v>0</v>
       </c>
       <c r="JL28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JO28">
         <v>0</v>
@@ -16238,7 +16241,7 @@
         <v>0</v>
       </c>
       <c r="JQ28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:295">
@@ -16251,14 +16254,11 @@
       <c r="E29">
         <v>15873</v>
       </c>
-      <c r="F29">
-        <v>4</v>
-      </c>
-      <c r="G29" t="s">
-        <v>333</v>
+      <c r="G29">
+        <v>3</v>
       </c>
       <c r="H29">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="I29">
         <v>2</v>
@@ -16267,7 +16267,7 @@
         <v>2.6</v>
       </c>
       <c r="K29">
-        <v>150</v>
+        <v>55</v>
       </c>
       <c r="L29">
         <v>1</v>
@@ -16426,7 +16426,7 @@
         <v>90</v>
       </c>
       <c r="DE29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF29" t="s">
         <v>373</v>
@@ -16654,7 +16654,7 @@
         <v>488</v>
       </c>
       <c r="IN29">
-        <v>86400</v>
+        <v>57600</v>
       </c>
       <c r="IO29">
         <v>1</v>
@@ -16711,7 +16711,7 @@
         <v>57</v>
       </c>
       <c r="JG29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ29">
         <v>0</v>
@@ -16720,7 +16720,7 @@
         <v>0</v>
       </c>
       <c r="JL29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JO29">
         <v>0</v>
@@ -16729,7 +16729,7 @@
         <v>0</v>
       </c>
       <c r="JQ29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:295">
@@ -16742,11 +16742,11 @@
       <c r="E30">
         <v>15855</v>
       </c>
-      <c r="F30">
-        <v>4</v>
+      <c r="G30">
+        <v>3</v>
       </c>
       <c r="H30">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="I30">
         <v>2</v>
@@ -16755,7 +16755,7 @@
         <v>2.6</v>
       </c>
       <c r="K30">
-        <v>150</v>
+        <v>55</v>
       </c>
       <c r="L30">
         <v>1</v>
@@ -16914,7 +16914,7 @@
         <v>41</v>
       </c>
       <c r="DE30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF30" t="s">
         <v>373</v>
@@ -17196,7 +17196,7 @@
         <v>488</v>
       </c>
       <c r="IN30">
-        <v>72000</v>
+        <v>57600</v>
       </c>
       <c r="IO30">
         <v>1</v>
@@ -17247,7 +17247,7 @@
         <v>0</v>
       </c>
       <c r="JG30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ30">
         <v>0</v>
@@ -17256,7 +17256,7 @@
         <v>0</v>
       </c>
       <c r="JL30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JO30">
         <v>0</v>
@@ -17265,7 +17265,7 @@
         <v>0</v>
       </c>
       <c r="JQ30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JR30" t="s">
         <v>504</v>
@@ -17332,11 +17332,8 @@
       <c r="E31">
         <v>15737</v>
       </c>
-      <c r="F31">
-        <v>3</v>
-      </c>
-      <c r="G31" t="s">
-        <v>333</v>
+      <c r="G31">
+        <v>3</v>
       </c>
       <c r="H31">
         <v>100</v>
@@ -17492,7 +17489,7 @@
         <v>0</v>
       </c>
       <c r="DE31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF31" t="s">
         <v>373</v>
@@ -17684,7 +17681,7 @@
         <v>488</v>
       </c>
       <c r="IN31">
-        <v>72000</v>
+        <v>43200</v>
       </c>
       <c r="IO31">
         <v>1</v>
@@ -17735,7 +17732,7 @@
         <v>0</v>
       </c>
       <c r="JG31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ31">
         <v>0</v>
@@ -17744,7 +17741,7 @@
         <v>0</v>
       </c>
       <c r="JL31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JO31">
         <v>0</v>
@@ -17753,7 +17750,7 @@
         <v>0</v>
       </c>
       <c r="JQ31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:295">
@@ -17766,11 +17763,11 @@
       <c r="E32">
         <v>15583</v>
       </c>
-      <c r="F32">
-        <v>3</v>
+      <c r="G32">
+        <v>4</v>
       </c>
       <c r="H32">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="I32">
         <v>2</v>
@@ -17779,7 +17776,7 @@
         <v>2.6</v>
       </c>
       <c r="K32">
-        <v>55</v>
+        <v>150</v>
       </c>
       <c r="L32">
         <v>1</v>
@@ -17923,7 +17920,7 @@
         <v>0</v>
       </c>
       <c r="DE32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF32" t="s">
         <v>373</v>
@@ -18115,7 +18112,7 @@
         <v>488</v>
       </c>
       <c r="IN32">
-        <v>43200</v>
+        <v>57600</v>
       </c>
       <c r="IO32">
         <v>1</v>
@@ -18166,7 +18163,7 @@
         <v>0</v>
       </c>
       <c r="JG32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ32">
         <v>0</v>
@@ -18175,7 +18172,7 @@
         <v>0</v>
       </c>
       <c r="JL32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JO32">
         <v>0</v>
@@ -18184,7 +18181,7 @@
         <v>0</v>
       </c>
       <c r="JQ32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:295">
@@ -18197,7 +18194,7 @@
       <c r="E33">
         <v>14594</v>
       </c>
-      <c r="F33">
+      <c r="G33">
         <v>4</v>
       </c>
       <c r="H33">
@@ -18369,7 +18366,7 @@
         <v>39</v>
       </c>
       <c r="DE33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF33" t="s">
         <v>373</v>
@@ -18651,7 +18648,7 @@
         <v>488</v>
       </c>
       <c r="IN33">
-        <v>57600</v>
+        <v>72000</v>
       </c>
       <c r="IO33">
         <v>1</v>
@@ -18702,7 +18699,7 @@
         <v>0</v>
       </c>
       <c r="JG33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ33">
         <v>0</v>
@@ -18711,7 +18708,7 @@
         <v>0</v>
       </c>
       <c r="JL33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JO33">
         <v>0</v>
@@ -18720,7 +18717,7 @@
         <v>0</v>
       </c>
       <c r="JQ33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:295">
@@ -18733,14 +18730,14 @@
       <c r="E34">
         <v>14561</v>
       </c>
-      <c r="F34">
-        <v>3</v>
-      </c>
-      <c r="G34" t="s">
+      <c r="F34" t="s">
         <v>333</v>
       </c>
+      <c r="G34">
+        <v>4</v>
+      </c>
       <c r="H34">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="I34">
         <v>2</v>
@@ -18749,7 +18746,7 @@
         <v>2.6</v>
       </c>
       <c r="K34">
-        <v>55</v>
+        <v>150</v>
       </c>
       <c r="L34">
         <v>1</v>
@@ -18908,7 +18905,7 @@
         <v>52</v>
       </c>
       <c r="DE34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF34" t="s">
         <v>373</v>
@@ -19190,7 +19187,7 @@
         <v>488</v>
       </c>
       <c r="IN34">
-        <v>86400</v>
+        <v>72000</v>
       </c>
       <c r="IO34">
         <v>1</v>
@@ -19241,7 +19238,7 @@
         <v>0</v>
       </c>
       <c r="JG34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ34">
         <v>0</v>
@@ -19250,7 +19247,7 @@
         <v>0</v>
       </c>
       <c r="JL34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JO34">
         <v>0</v>
@@ -19259,7 +19256,7 @@
         <v>0</v>
       </c>
       <c r="JQ34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JR34" t="s">
         <v>505</v>
@@ -19326,11 +19323,11 @@
       <c r="E35">
         <v>14145</v>
       </c>
-      <c r="F35">
-        <v>3</v>
+      <c r="G35">
+        <v>4</v>
       </c>
       <c r="H35">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="I35">
         <v>2</v>
@@ -19339,7 +19336,7 @@
         <v>2.6</v>
       </c>
       <c r="K35">
-        <v>55</v>
+        <v>150</v>
       </c>
       <c r="L35">
         <v>1</v>
@@ -19483,7 +19480,7 @@
         <v>0</v>
       </c>
       <c r="DE35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF35" t="s">
         <v>373</v>
@@ -19675,7 +19672,7 @@
         <v>488</v>
       </c>
       <c r="IN35">
-        <v>43200</v>
+        <v>72000</v>
       </c>
       <c r="IO35">
         <v>1</v>
@@ -19726,7 +19723,7 @@
         <v>0</v>
       </c>
       <c r="JG35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ35">
         <v>0</v>
@@ -19735,7 +19732,7 @@
         <v>0</v>
       </c>
       <c r="JL35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JO35">
         <v>0</v>
@@ -19744,7 +19741,7 @@
         <v>0</v>
       </c>
       <c r="JQ35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:295">
@@ -19757,11 +19754,11 @@
       <c r="E36">
         <v>14125</v>
       </c>
-      <c r="F36">
-        <v>4</v>
+      <c r="G36">
+        <v>3</v>
       </c>
       <c r="H36">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="I36">
         <v>2</v>
@@ -19770,7 +19767,7 @@
         <v>2.6</v>
       </c>
       <c r="K36">
-        <v>150</v>
+        <v>55</v>
       </c>
       <c r="L36">
         <v>1</v>
@@ -19914,7 +19911,7 @@
         <v>0</v>
       </c>
       <c r="DE36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF36" t="s">
         <v>373</v>
@@ -20106,7 +20103,7 @@
         <v>488</v>
       </c>
       <c r="IN36">
-        <v>72000</v>
+        <v>43200</v>
       </c>
       <c r="IO36">
         <v>1</v>
@@ -20157,7 +20154,7 @@
         <v>0</v>
       </c>
       <c r="JG36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ36">
         <v>0</v>
@@ -20166,7 +20163,7 @@
         <v>0</v>
       </c>
       <c r="JL36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JO36">
         <v>0</v>
@@ -20175,7 +20172,7 @@
         <v>0</v>
       </c>
       <c r="JQ36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:295">
@@ -20188,7 +20185,7 @@
       <c r="E37">
         <v>14119</v>
       </c>
-      <c r="F37">
+      <c r="G37">
         <v>3</v>
       </c>
       <c r="H37">
@@ -20345,7 +20342,7 @@
         <v>0</v>
       </c>
       <c r="DE37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF37" t="s">
         <v>373</v>
@@ -20588,7 +20585,7 @@
         <v>0</v>
       </c>
       <c r="JG37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ37">
         <v>0</v>
@@ -20597,7 +20594,7 @@
         <v>0</v>
       </c>
       <c r="JL37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JO37">
         <v>0</v>
@@ -20606,7 +20603,7 @@
         <v>0</v>
       </c>
       <c r="JQ37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:295">
@@ -20619,7 +20616,7 @@
       <c r="E38">
         <v>13668</v>
       </c>
-      <c r="F38">
+      <c r="G38">
         <v>3</v>
       </c>
       <c r="H38">
@@ -20776,7 +20773,7 @@
         <v>0</v>
       </c>
       <c r="DE38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF38" t="s">
         <v>373</v>
@@ -20968,7 +20965,7 @@
         <v>488</v>
       </c>
       <c r="IN38">
-        <v>86400</v>
+        <v>43200</v>
       </c>
       <c r="IO38">
         <v>1</v>
@@ -21019,7 +21016,7 @@
         <v>0</v>
       </c>
       <c r="JG38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ38">
         <v>0</v>
@@ -21028,7 +21025,7 @@
         <v>0</v>
       </c>
       <c r="JL38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JO38">
         <v>0</v>
@@ -21037,7 +21034,7 @@
         <v>0</v>
       </c>
       <c r="JQ38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:295">
@@ -21050,7 +21047,7 @@
       <c r="E39">
         <v>13273</v>
       </c>
-      <c r="F39">
+      <c r="G39">
         <v>4</v>
       </c>
       <c r="H39">
@@ -21207,7 +21204,7 @@
         <v>0</v>
       </c>
       <c r="DE39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF39" t="s">
         <v>373</v>
@@ -21399,7 +21396,7 @@
         <v>488</v>
       </c>
       <c r="IN39">
-        <v>57600</v>
+        <v>72000</v>
       </c>
       <c r="IO39">
         <v>1</v>
@@ -21450,7 +21447,7 @@
         <v>0</v>
       </c>
       <c r="JG39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ39">
         <v>0</v>
@@ -21459,7 +21456,7 @@
         <v>0</v>
       </c>
       <c r="JL39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JO39">
         <v>0</v>
@@ -21468,7 +21465,7 @@
         <v>0</v>
       </c>
       <c r="JQ39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:295">
@@ -21481,11 +21478,14 @@
       <c r="E40">
         <v>13127</v>
       </c>
-      <c r="F40">
-        <v>4</v>
+      <c r="F40" t="s">
+        <v>333</v>
+      </c>
+      <c r="G40">
+        <v>3</v>
       </c>
       <c r="H40">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="I40">
         <v>2</v>
@@ -21494,7 +21494,7 @@
         <v>2.6</v>
       </c>
       <c r="K40">
-        <v>150</v>
+        <v>55</v>
       </c>
       <c r="L40">
         <v>1</v>
@@ -21653,7 +21653,7 @@
         <v>52</v>
       </c>
       <c r="DE40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF40" t="s">
         <v>373</v>
@@ -21935,7 +21935,7 @@
         <v>488</v>
       </c>
       <c r="IN40">
-        <v>43200</v>
+        <v>86400</v>
       </c>
       <c r="IO40">
         <v>1</v>
@@ -21986,7 +21986,7 @@
         <v>0</v>
       </c>
       <c r="JG40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ40">
         <v>0</v>
@@ -21995,7 +21995,7 @@
         <v>0</v>
       </c>
       <c r="JL40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JO40">
         <v>0</v>
@@ -22004,7 +22004,7 @@
         <v>0</v>
       </c>
       <c r="JQ40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -22037,7 +22037,7 @@
         <v>508</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>509</v>
